--- a/natmiOut/OldD4/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H2">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I2">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J2">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.99774075956296</v>
+        <v>3.757653333333334</v>
       </c>
       <c r="N2">
-        <v>2.99774075956296</v>
+        <v>11.27296</v>
       </c>
       <c r="O2">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253057195333491</v>
       </c>
       <c r="P2">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253596992176285</v>
       </c>
       <c r="Q2">
-        <v>286.9590322823342</v>
+        <v>363.0646754952533</v>
       </c>
       <c r="R2">
-        <v>286.9590322823342</v>
+        <v>3267.58207945728</v>
       </c>
       <c r="S2">
-        <v>0.0001791627172520892</v>
+        <v>0.0001323170598790608</v>
       </c>
       <c r="T2">
-        <v>0.0001791627172520892</v>
+        <v>0.0001365726695251937</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H3">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I3">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J3">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.47644740283372</v>
+        <v>6.337854</v>
       </c>
       <c r="N3">
-        <v>3.47644740283372</v>
+        <v>19.013562</v>
       </c>
       <c r="O3">
-        <v>0.0009522256457861252</v>
+        <v>0.001054673224006999</v>
       </c>
       <c r="P3">
-        <v>0.0009522256457861252</v>
+        <v>0.001054764268956488</v>
       </c>
       <c r="Q3">
-        <v>332.7832733084758</v>
+        <v>612.3638083998239</v>
       </c>
       <c r="R3">
-        <v>332.7832733084758</v>
+        <v>5511.274275598415</v>
       </c>
       <c r="S3">
-        <v>0.0002077730574562634</v>
+        <v>0.0002231728509342919</v>
       </c>
       <c r="T3">
-        <v>0.0002077730574562634</v>
+        <v>0.0002303505840101252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H4">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I4">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J4">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1983.20185223735</v>
+        <v>3733.712707666667</v>
       </c>
       <c r="N4">
-        <v>1983.20185223735</v>
+        <v>11201.138123</v>
       </c>
       <c r="O4">
-        <v>0.5432142200487869</v>
+        <v>0.6213217942399283</v>
       </c>
       <c r="P4">
-        <v>0.5432142200487869</v>
+        <v>0.6213754300107861</v>
       </c>
       <c r="Q4">
-        <v>189842.1945003447</v>
+        <v>360751.530902665</v>
       </c>
       <c r="R4">
-        <v>189842.1945003447</v>
+        <v>3246763.778123985</v>
       </c>
       <c r="S4">
-        <v>0.1185278718891027</v>
+        <v>0.1314740461896983</v>
       </c>
       <c r="T4">
-        <v>0.1185278718891027</v>
+        <v>0.1357025426488276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H5">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I5">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J5">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1659.70205225001</v>
+        <v>2263.941528333333</v>
       </c>
       <c r="N5">
-        <v>1659.70205225001</v>
+        <v>6791.824585</v>
       </c>
       <c r="O5">
-        <v>0.4546051400714705</v>
+        <v>0.3767392733645568</v>
       </c>
       <c r="P5">
-        <v>0.4546051400714705</v>
+        <v>0.3767717954835726</v>
       </c>
       <c r="Q5">
-        <v>158875.1439801291</v>
+        <v>218742.1572482922</v>
       </c>
       <c r="R5">
-        <v>158875.1439801291</v>
+        <v>1968679.41523463</v>
       </c>
       <c r="S5">
-        <v>0.09919361057536286</v>
+        <v>0.07971945791535871</v>
       </c>
       <c r="T5">
-        <v>0.09919361057536286</v>
+        <v>0.08228341221119305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H6">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I6">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J6">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.48703392818052</v>
+        <v>1.5561305</v>
       </c>
       <c r="N6">
-        <v>1.48703392818052</v>
+        <v>3.112261</v>
       </c>
       <c r="O6">
-        <v>0.0004073100146469559</v>
+        <v>0.0002589534519745364</v>
       </c>
       <c r="P6">
-        <v>0.0004073100146469559</v>
+        <v>0.0001726505374672451</v>
       </c>
       <c r="Q6">
-        <v>142.346470634736</v>
+        <v>150.353416053308</v>
       </c>
       <c r="R6">
-        <v>142.346470634736</v>
+        <v>902.120496319848</v>
       </c>
       <c r="S6">
-        <v>8.887394227435181E-05</v>
+        <v>5.479553175425074E-05</v>
       </c>
       <c r="T6">
-        <v>8.887394227435181E-05</v>
+        <v>3.770525159577865E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H7">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J7">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.99774075956296</v>
+        <v>3.757653333333334</v>
       </c>
       <c r="N7">
-        <v>2.99774075956296</v>
+        <v>11.27296</v>
       </c>
       <c r="O7">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253057195333491</v>
       </c>
       <c r="P7">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253596992176285</v>
       </c>
       <c r="Q7">
-        <v>333.7643884551317</v>
+        <v>459.7638771175822</v>
       </c>
       <c r="R7">
-        <v>333.7643884551317</v>
+        <v>4137.87489405824</v>
       </c>
       <c r="S7">
-        <v>0.0002083856161696588</v>
+        <v>0.0001675585882207139</v>
       </c>
       <c r="T7">
-        <v>0.0002083856161696588</v>
+        <v>0.0001729476434564955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H8">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J8">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.47644740283372</v>
+        <v>6.337854</v>
       </c>
       <c r="N8">
-        <v>3.47644740283372</v>
+        <v>19.013562</v>
       </c>
       <c r="O8">
-        <v>0.0009522256457861252</v>
+        <v>0.001054673224006999</v>
       </c>
       <c r="P8">
-        <v>0.0009522256457861252</v>
+        <v>0.001054764268956488</v>
       </c>
       <c r="Q8">
-        <v>387.0629365470514</v>
+        <v>775.461722824842</v>
       </c>
       <c r="R8">
-        <v>387.0629365470514</v>
+        <v>6979.155505423578</v>
       </c>
       <c r="S8">
-        <v>0.0002416625359647614</v>
+        <v>0.000282613049790562</v>
       </c>
       <c r="T8">
-        <v>0.0002416625359647614</v>
+        <v>0.0002917025112848774</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H9">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J9">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1983.20185223735</v>
+        <v>3733.712707666667</v>
       </c>
       <c r="N9">
-        <v>1983.20185223735</v>
+        <v>11201.138123</v>
       </c>
       <c r="O9">
-        <v>0.5432142200487869</v>
+        <v>0.6213217942399283</v>
       </c>
       <c r="P9">
-        <v>0.5432142200487869</v>
+        <v>0.6213754300107861</v>
       </c>
       <c r="Q9">
-        <v>220807.0031684745</v>
+        <v>456834.6460521494</v>
       </c>
       <c r="R9">
-        <v>220807.0031684745</v>
+        <v>4111511.814469344</v>
       </c>
       <c r="S9">
-        <v>0.1378607335037002</v>
+        <v>0.166491044974443</v>
       </c>
       <c r="T9">
-        <v>0.1378607335037002</v>
+        <v>0.1718457656554767</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H10">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J10">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1659.70205225001</v>
+        <v>2263.941528333333</v>
       </c>
       <c r="N10">
-        <v>1659.70205225001</v>
+        <v>6791.824585</v>
       </c>
       <c r="O10">
-        <v>0.4546051400714705</v>
+        <v>0.3767392733645568</v>
       </c>
       <c r="P10">
-        <v>0.4546051400714705</v>
+        <v>0.3767717954835726</v>
       </c>
       <c r="Q10">
-        <v>184788.9744034143</v>
+        <v>277002.2783636342</v>
       </c>
       <c r="R10">
-        <v>184788.9744034143</v>
+        <v>2493020.505272708</v>
       </c>
       <c r="S10">
-        <v>0.1153728966432001</v>
+        <v>0.1009520604087423</v>
       </c>
       <c r="T10">
-        <v>0.1153728966432001</v>
+        <v>0.1041989022178417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H11">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J11">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.48703392818052</v>
+        <v>1.5561305</v>
       </c>
       <c r="N11">
-        <v>1.48703392818052</v>
+        <v>3.112261</v>
       </c>
       <c r="O11">
-        <v>0.0004073100146469559</v>
+        <v>0.0002589534519745364</v>
       </c>
       <c r="P11">
-        <v>0.0004073100146469559</v>
+        <v>0.0001726505374672451</v>
       </c>
       <c r="Q11">
-        <v>165.5643397675127</v>
+        <v>190.3987751169848</v>
       </c>
       <c r="R11">
-        <v>165.5643397675127</v>
+        <v>1142.392650701909</v>
       </c>
       <c r="S11">
-        <v>0.000103370006362479</v>
+        <v>6.938985758856422E-05</v>
       </c>
       <c r="T11">
-        <v>0.000103370006362479</v>
+        <v>4.774772604281007E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H12">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I12">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J12">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.99774075956296</v>
+        <v>3.757653333333334</v>
       </c>
       <c r="N12">
-        <v>2.99774075956296</v>
+        <v>11.27296</v>
       </c>
       <c r="O12">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253057195333491</v>
       </c>
       <c r="P12">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253596992176285</v>
       </c>
       <c r="Q12">
-        <v>248.9108754813786</v>
+        <v>314.6803408155023</v>
       </c>
       <c r="R12">
-        <v>248.9108754813786</v>
+        <v>2832.12306733952</v>
       </c>
       <c r="S12">
-        <v>0.0001554073710457854</v>
+        <v>0.0001146836371278771</v>
       </c>
       <c r="T12">
-        <v>0.0001554073710457854</v>
+        <v>0.0001183721168512104</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H13">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I13">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J13">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.47644740283372</v>
+        <v>6.337854</v>
       </c>
       <c r="N13">
-        <v>3.47644740283372</v>
+        <v>19.013562</v>
       </c>
       <c r="O13">
-        <v>0.0009522256457861252</v>
+        <v>0.001054673224006999</v>
       </c>
       <c r="P13">
-        <v>0.0009522256457861252</v>
+        <v>0.001054764268956488</v>
       </c>
       <c r="Q13">
-        <v>288.6592390765844</v>
+        <v>530.7562672338661</v>
       </c>
       <c r="R13">
-        <v>288.6592390765844</v>
+        <v>4776.806405104794</v>
       </c>
       <c r="S13">
-        <v>0.0001802242404483642</v>
+        <v>0.0001934314008846294</v>
       </c>
       <c r="T13">
-        <v>0.0001802242404483642</v>
+        <v>0.0001996525830679549</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H14">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I14">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J14">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1983.20185223735</v>
+        <v>3733.712707666667</v>
       </c>
       <c r="N14">
-        <v>1983.20185223735</v>
+        <v>11201.138123</v>
       </c>
       <c r="O14">
-        <v>0.5432142200487869</v>
+        <v>0.6213217942399283</v>
       </c>
       <c r="P14">
-        <v>0.5432142200487869</v>
+        <v>0.6213754300107861</v>
       </c>
       <c r="Q14">
-        <v>164670.8467775106</v>
+        <v>312675.4607545095</v>
       </c>
       <c r="R14">
-        <v>164670.8467775106</v>
+        <v>2814079.146790585</v>
       </c>
       <c r="S14">
-        <v>0.102812154495398</v>
+        <v>0.1139529688668603</v>
       </c>
       <c r="T14">
-        <v>0.102812154495398</v>
+        <v>0.1176179486809412</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H15">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I15">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J15">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1659.70205225001</v>
+        <v>2263.941528333333</v>
       </c>
       <c r="N15">
-        <v>1659.70205225001</v>
+        <v>6791.824585</v>
       </c>
       <c r="O15">
-        <v>0.4546051400714705</v>
+        <v>0.3767392733645568</v>
       </c>
       <c r="P15">
-        <v>0.4546051400714705</v>
+        <v>0.3767717954835726</v>
       </c>
       <c r="Q15">
-        <v>137809.7454044088</v>
+        <v>189591.1699471042</v>
       </c>
       <c r="R15">
-        <v>137809.7454044088</v>
+        <v>1706320.529523937</v>
       </c>
       <c r="S15">
-        <v>0.08604144032023379</v>
+        <v>0.06909553002426462</v>
       </c>
       <c r="T15">
-        <v>0.08604144032023379</v>
+        <v>0.07131779527369418</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H16">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I16">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J16">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.48703392818052</v>
+        <v>1.5561305</v>
       </c>
       <c r="N16">
-        <v>1.48703392818052</v>
+        <v>3.112261</v>
       </c>
       <c r="O16">
-        <v>0.0004073100146469559</v>
+        <v>0.0002589534519745364</v>
       </c>
       <c r="P16">
-        <v>0.0004073100146469559</v>
+        <v>0.0001726505374672451</v>
       </c>
       <c r="Q16">
-        <v>123.4726237594638</v>
+        <v>130.3163524291928</v>
       </c>
       <c r="R16">
-        <v>123.4726237594638</v>
+        <v>781.898114575157</v>
       </c>
       <c r="S16">
-        <v>7.709006614304877E-05</v>
+        <v>4.749312662839801E-05</v>
       </c>
       <c r="T16">
-        <v>7.709006614304877E-05</v>
+        <v>3.268040716577234E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H17">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I17">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J17">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.99774075956296</v>
+        <v>3.757653333333334</v>
       </c>
       <c r="N17">
-        <v>2.99774075956296</v>
+        <v>11.27296</v>
       </c>
       <c r="O17">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253057195333491</v>
       </c>
       <c r="P17">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253596992176285</v>
       </c>
       <c r="Q17">
-        <v>317.9277226803899</v>
+        <v>418.3065458884267</v>
       </c>
       <c r="R17">
-        <v>317.9277226803899</v>
+        <v>3764.758912995841</v>
       </c>
       <c r="S17">
-        <v>0.0001984980024226753</v>
+        <v>0.0001524496763685997</v>
       </c>
       <c r="T17">
-        <v>0.0001984980024226753</v>
+        <v>0.0001573527955423255</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H18">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I18">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J18">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.47644740283372</v>
+        <v>6.337854</v>
       </c>
       <c r="N18">
-        <v>3.47644740283372</v>
+        <v>19.013562</v>
       </c>
       <c r="O18">
-        <v>0.0009522256457861252</v>
+        <v>0.001054673224006999</v>
       </c>
       <c r="P18">
-        <v>0.0009522256457861252</v>
+        <v>0.001054764268956488</v>
       </c>
       <c r="Q18">
-        <v>368.6973272372679</v>
+        <v>705.537626786172</v>
       </c>
       <c r="R18">
-        <v>368.6973272372679</v>
+        <v>6349.838641075548</v>
       </c>
       <c r="S18">
-        <v>0.0002301959776837393</v>
+        <v>0.0002571295714270525</v>
       </c>
       <c r="T18">
-        <v>0.0002301959776837393</v>
+        <v>0.0002653994278270596</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H19">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I19">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J19">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1983.20185223735</v>
+        <v>3733.712707666667</v>
       </c>
       <c r="N19">
-        <v>1983.20185223735</v>
+        <v>11201.138123</v>
       </c>
       <c r="O19">
-        <v>0.5432142200487869</v>
+        <v>0.6213217942399283</v>
       </c>
       <c r="P19">
-        <v>0.5432142200487869</v>
+        <v>0.6213754300107861</v>
       </c>
       <c r="Q19">
-        <v>210330.0115215014</v>
+        <v>415641.4462795313</v>
       </c>
       <c r="R19">
-        <v>210330.0115215014</v>
+        <v>3740773.016515782</v>
       </c>
       <c r="S19">
-        <v>0.1313194294117199</v>
+        <v>0.1514783944777001</v>
       </c>
       <c r="T19">
-        <v>0.1313194294117199</v>
+        <v>0.1563502750750262</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H20">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I20">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J20">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1659.70205225001</v>
+        <v>2263.941528333333</v>
       </c>
       <c r="N20">
-        <v>1659.70205225001</v>
+        <v>6791.824585</v>
       </c>
       <c r="O20">
-        <v>0.4546051400714705</v>
+        <v>0.3767392733645568</v>
       </c>
       <c r="P20">
-        <v>0.4546051400714705</v>
+        <v>0.3767717954835726</v>
       </c>
       <c r="Q20">
-        <v>176020.9891787785</v>
+        <v>252024.7284148482</v>
       </c>
       <c r="R20">
-        <v>176020.9891787785</v>
+        <v>2268222.555733634</v>
       </c>
       <c r="S20">
-        <v>0.1098986097905516</v>
+        <v>0.09184912036728143</v>
       </c>
       <c r="T20">
-        <v>0.1098986097905516</v>
+        <v>0.09480319146726725</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H21">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I21">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J21">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.48703392818052</v>
+        <v>1.5561305</v>
       </c>
       <c r="N21">
-        <v>1.48703392818052</v>
+        <v>3.112261</v>
       </c>
       <c r="O21">
-        <v>0.0004073100146469559</v>
+        <v>0.0002589534519745364</v>
       </c>
       <c r="P21">
-        <v>0.0004073100146469559</v>
+        <v>0.0001726505374672451</v>
       </c>
       <c r="Q21">
-        <v>157.7085372798654</v>
+        <v>173.230342626949</v>
       </c>
       <c r="R21">
-        <v>157.7085372798654</v>
+        <v>1039.382055761694</v>
       </c>
       <c r="S21">
-        <v>9.846524031037643E-05</v>
+        <v>6.313291037464177E-05</v>
       </c>
       <c r="T21">
-        <v>9.846524031037643E-05</v>
+        <v>4.344226971508402E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H22">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I22">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J22">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.99774075956296</v>
+        <v>3.757653333333334</v>
       </c>
       <c r="N22">
-        <v>2.99774075956296</v>
+        <v>11.27296</v>
       </c>
       <c r="O22">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253057195333491</v>
       </c>
       <c r="P22">
-        <v>0.0008211042193094737</v>
+        <v>0.0006253596992176285</v>
       </c>
       <c r="Q22">
-        <v>127.5736063573115</v>
+        <v>159.9604277952</v>
       </c>
       <c r="R22">
-        <v>127.5736063573115</v>
+        <v>959.7625667712001</v>
       </c>
       <c r="S22">
-        <v>7.965051241926499E-05</v>
+        <v>5.829675793709756E-05</v>
       </c>
       <c r="T22">
-        <v>7.965051241926499E-05</v>
+        <v>4.011447384240327E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H23">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I23">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J23">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.47644740283372</v>
+        <v>6.337854</v>
       </c>
       <c r="N23">
-        <v>3.47644740283372</v>
+        <v>19.013562</v>
       </c>
       <c r="O23">
-        <v>0.0009522256457861252</v>
+        <v>0.001054673224006999</v>
       </c>
       <c r="P23">
-        <v>0.0009522256457861252</v>
+        <v>0.001054764268956488</v>
       </c>
       <c r="Q23">
-        <v>147.9457258190882</v>
+        <v>269.79759632169</v>
       </c>
       <c r="R23">
-        <v>147.9457258190882</v>
+        <v>1618.78557793014</v>
       </c>
       <c r="S23">
-        <v>9.236983423299687E-05</v>
+        <v>9.832635097046353E-05</v>
       </c>
       <c r="T23">
-        <v>9.236983423299687E-05</v>
+        <v>6.765916276647063E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H24">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I24">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J24">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1983.20185223735</v>
+        <v>3733.712707666667</v>
       </c>
       <c r="N24">
-        <v>1983.20185223735</v>
+        <v>11201.138123</v>
       </c>
       <c r="O24">
-        <v>0.5432142200487869</v>
+        <v>0.6213217942399283</v>
       </c>
       <c r="P24">
-        <v>0.5432142200487869</v>
+        <v>0.6213754300107861</v>
       </c>
       <c r="Q24">
-        <v>84398.2961559705</v>
+        <v>158941.2936751487</v>
       </c>
       <c r="R24">
-        <v>84398.2961559705</v>
+        <v>953647.7620508919</v>
       </c>
       <c r="S24">
-        <v>0.05269403074886628</v>
+        <v>0.05792533973122644</v>
       </c>
       <c r="T24">
-        <v>0.05269403074886628</v>
+        <v>0.03985889795051429</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H25">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I25">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J25">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1659.70205225001</v>
+        <v>2263.941528333333</v>
       </c>
       <c r="N25">
-        <v>1659.70205225001</v>
+        <v>6791.824585</v>
       </c>
       <c r="O25">
-        <v>0.4546051400714705</v>
+        <v>0.3767392733645568</v>
       </c>
       <c r="P25">
-        <v>0.4546051400714705</v>
+        <v>0.3767717954835726</v>
       </c>
       <c r="Q25">
-        <v>70631.24975324198</v>
+        <v>96374.25894588082</v>
       </c>
       <c r="R25">
-        <v>70631.24975324198</v>
+        <v>578245.553675285</v>
       </c>
       <c r="S25">
-        <v>0.04409858274212206</v>
+        <v>0.0351231046489097</v>
       </c>
       <c r="T25">
-        <v>0.04409858274212206</v>
+        <v>0.02416849431357638</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H26">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I26">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J26">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.48703392818052</v>
+        <v>1.5561305</v>
       </c>
       <c r="N26">
-        <v>1.48703392818052</v>
+        <v>3.112261</v>
       </c>
       <c r="O26">
-        <v>0.0004073100146469559</v>
+        <v>0.0002589534519745364</v>
       </c>
       <c r="P26">
-        <v>0.0004073100146469559</v>
+        <v>0.0001726505374672451</v>
       </c>
       <c r="Q26">
-        <v>63.28308423218206</v>
+        <v>66.2432849451675</v>
       </c>
       <c r="R26">
-        <v>63.28308423218206</v>
+        <v>264.97313978067</v>
       </c>
       <c r="S26">
-        <v>3.951075955669986E-05</v>
+        <v>2.414202562868171E-05</v>
       </c>
       <c r="T26">
-        <v>3.951075955669986E-05</v>
+        <v>1.107488294780003E-05</v>
       </c>
     </row>
   </sheetData>
